--- a/test/Voxa Cli Intents Utterances en-US.xlsx
+++ b/test/Voxa Cli Intents Utterances en-US.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20240" windowHeight="8560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="INTENT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="UTTERANCES_MAIN" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="UTTERANCES_NUMBER" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="VIEWS_FILE" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="INVOCATION_NAMES" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="INTENT" sheetId="1" r:id="rId1"/>
+    <sheet name="UTTERANCES_MAIN" sheetId="2" r:id="rId2"/>
+    <sheet name="UTTERANCES_NUMBER" sheetId="3" r:id="rId3"/>
+    <sheet name="VIEWS_FILE" sheetId="4" r:id="rId4"/>
+    <sheet name="INVOCATION_NAMES" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -24,222 +26,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose/Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slotName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slotType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platformIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platformSlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canFulfillIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOOGLE_ASSISTANT_WELCOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FallbackIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dialogflow Default Fallback Intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.NextIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sys.number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.FallbackIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions.intent.SIGN_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions_intent_SIGN_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number {number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another number utterance {number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch.say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello World!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invocationName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voxa cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voxa cli staging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staging</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
+    <t>Purpose/Definition</t>
+  </si>
+  <si>
+    <t>slotName</t>
+  </si>
+  <si>
+    <t>slotType</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>platformIntent</t>
+  </si>
+  <si>
+    <t>platformSlot</t>
+  </si>
+  <si>
+    <t>canFulfillIntent</t>
+  </si>
+  <si>
+    <t>startIntent</t>
+  </si>
+  <si>
+    <t>endIntent</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>GOOGLE_ASSISTANT_WELCOME</t>
+  </si>
+  <si>
+    <t>dialogflow</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>FallbackIntent</t>
+  </si>
+  <si>
+    <t>Dialogflow Default Fallback Intent</t>
+  </si>
+  <si>
+    <t>AMAZON.NextIntent</t>
+  </si>
+  <si>
+    <t>NumberIntent</t>
+  </si>
+  <si>
+    <t>{number}</t>
+  </si>
+  <si>
+    <t>@sys.number</t>
+  </si>
+  <si>
+    <t>AMAZON.Number</t>
+  </si>
+  <si>
+    <t>alexa</t>
+  </si>
+  <si>
+    <t>AMAZON.FallbackIntent</t>
+  </si>
+  <si>
+    <t>actions.intent.SIGN_IN</t>
+  </si>
+  <si>
+    <t>actions_intent_SIGN_IN</t>
+  </si>
+  <si>
+    <t>The number {number}</t>
+  </si>
+  <si>
+    <t>Another number utterance {number}</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Launch.say</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>invocationName</t>
+  </si>
+  <si>
+    <t>voxa cli</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>voxa cli staging</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>Hi World!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="&quot;Roboto Mono&quot;"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -258,14 +247,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -276,7 +265,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -285,7 +274,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
@@ -297,113 +286,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -462,38 +384,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="1:1 B2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="A1:XFD1 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="14.43"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" customWidth="1"/>
+    <col min="12" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="13">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -547,7 +793,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -566,7 +812,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="13">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -581,7 +827,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="13">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -602,7 +848,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -621,7 +867,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="13">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -638,7 +884,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -657,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="13">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -670,7 +916,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="13">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -683,7 +929,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="13">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -696,7 +942,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="13">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -709,7 +955,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -722,7 +968,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="13">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -736,80 +982,71 @@
       <c r="K14" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A1:XFD1 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="13">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="13">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="24">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -840,35 +1077,35 @@
       <c r="Z2" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
@@ -876,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="13">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -884,36 +1121,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="13">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="1:1 B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A1:XFD1 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="13">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -921,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14">
       <c r="A2" s="16" t="s">
         <v>32</v>
       </c>
@@ -929,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14">
       <c r="A3" s="16" t="s">
         <v>34</v>
       </c>
@@ -938,12 +1179,12 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test/Voxa Cli Intents Utterances en-US.xlsx
+++ b/test/Voxa Cli Intents Utterances en-US.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Dev/Infoxchange/voxa-cli/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3EBCB7-64F9-D54C-BAF0-BB810BD70AF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28900" windowHeight="22420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INTENT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="UTTERANCES_MAIN" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="RESPONSES_MAIN" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="UTTERANCES_NUMBER" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="VIEWS_FILE" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="INVOCATION_NAMES" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="INTENT" sheetId="1" r:id="rId1"/>
+    <sheet name="UTTERANCES_MAIN" sheetId="2" r:id="rId2"/>
+    <sheet name="RESPONSES_MAIN" sheetId="3" r:id="rId3"/>
+    <sheet name="UTTERANCES_NUMBER" sheetId="4" r:id="rId4"/>
+    <sheet name="VIEWS_FILE" sheetId="5" r:id="rId5"/>
+    <sheet name="INVOCATION_NAMES" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,106 +36,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">Intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose/Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slotName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slotType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platformIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platformSlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canFulfillIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webhookForSlotFilling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webhookUsed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOOGLE_ASSISTANT_WELCOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FallbackIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dialogflow Default Fallback Intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.NextIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sys.number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZON.FallbackIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions.intent.SIGN_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actions_intent_SIGN_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JokeIntent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just to get a joke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number {number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me a joke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What’s the best thing about Switzerland?
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
+    <t>Purpose/Definition</t>
+  </si>
+  <si>
+    <t>slotName</t>
+  </si>
+  <si>
+    <t>slotType</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>platformIntent</t>
+  </si>
+  <si>
+    <t>platformSlot</t>
+  </si>
+  <si>
+    <t>canFulfillIntent</t>
+  </si>
+  <si>
+    <t>startIntent</t>
+  </si>
+  <si>
+    <t>endIntent</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>webhookForSlotFilling</t>
+  </si>
+  <si>
+    <t>webhookUsed</t>
+  </si>
+  <si>
+    <t>GOOGLE_ASSISTANT_WELCOME</t>
+  </si>
+  <si>
+    <t>dialogflow</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>FallbackIntent</t>
+  </si>
+  <si>
+    <t>Dialogflow Default Fallback Intent</t>
+  </si>
+  <si>
+    <t>AMAZON.NextIntent</t>
+  </si>
+  <si>
+    <t>NumberIntent</t>
+  </si>
+  <si>
+    <t>{number}</t>
+  </si>
+  <si>
+    <t>@sys.number</t>
+  </si>
+  <si>
+    <t>AMAZON.Number</t>
+  </si>
+  <si>
+    <t>alexa</t>
+  </si>
+  <si>
+    <t>AMAZON.FallbackIntent</t>
+  </si>
+  <si>
+    <t>actions.intent.SIGN_IN</t>
+  </si>
+  <si>
+    <t>actions_intent_SIGN_IN</t>
+  </si>
+  <si>
+    <t>JokeIntent</t>
+  </si>
+  <si>
+    <t>Just to get a joke</t>
+  </si>
+  <si>
+    <t>The number {number}</t>
+  </si>
+  <si>
+    <t>Tell me a joke</t>
+  </si>
+  <si>
+    <t>What’s the best thing about Switzerland?
 I don’t know, but the flag is a big plus</t>
   </si>
   <si>
-    <t xml:space="preserve">I invented a new word!
+    <t>I invented a new word!
 Plagiarism!</t>
   </si>
   <si>
@@ -132,206 +143,184 @@
 He’ll stop at nothing to avoid them. </t>
   </si>
   <si>
-    <t xml:space="preserve">Another number utterance {number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch.say</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello World!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi World!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invocationName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voxa cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voxa cli staging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staging</t>
+    <t>Another number utterance {number}</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Launch.say</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>Hi World!</t>
+  </si>
+  <si>
+    <t>invocationName</t>
+  </si>
+  <si>
+    <t>voxa cli</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>voxa cli staging</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>slotRequired</t>
+  </si>
+  <si>
+    <t>DateIntent</t>
+  </si>
+  <si>
+    <t>{date}</t>
+  </si>
+  <si>
+    <t>The date {date}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="&quot;Roboto Mono&quot;"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -391,14 +380,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -413,7 +402,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
       </left>
@@ -424,7 +413,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -433,7 +422,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
@@ -445,185 +434,75 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="18">
+    <cellStyle name="Accent" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent 1" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Bad" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Error" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Footnote" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Heading 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Neutral" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Note" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Status" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Warning" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -682,39 +561,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="1" sqref="A:A E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="23.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="12.03"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="12" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="1026" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,25 +923,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -768,14 +957,15 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -794,8 +984,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -810,8 +1001,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -831,11 +1023,12 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -854,8 +1047,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -872,8 +1066,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -888,12 +1083,13 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -912,26 +1108,39 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="6" t="b">
+      <c r="M9" s="4"/>
+      <c r="N9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>"@sys.date"</f>
+        <v>@sys.date</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="4"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -944,8 +1153,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -958,8 +1168,9 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -972,8 +1183,9 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -986,108 +1198,96 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="A:A B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.03"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="1025" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.61"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="1025" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="34">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="34">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" ht="51">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
   </headerFooter>
@@ -1095,24 +1295,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.03"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" s="3" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -1142,43 +1339,34 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.03"/>
+    <col min="1" max="1025" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" s="3" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
@@ -1194,7 +1382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
@@ -1203,36 +1391,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="1" sqref="A:A D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.03"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="1025" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -1240,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -1248,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
         <v>43</v>
       </c>
@@ -1257,12 +1436,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>